--- a/artfynd/A 51211-2019.xlsx
+++ b/artfynd/A 51211-2019.xlsx
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>674105.7058939481</v>
+        <v>674106</v>
       </c>
       <c r="R2" t="n">
-        <v>7165912.146797295</v>
+        <v>7165912</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
